--- a/biology/Zoologie/Cymbiapophysa/Cymbiapophysa.xlsx
+++ b/biology/Zoologie/Cymbiapophysa/Cymbiapophysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymbiapophysa est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymbiapophysa est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Colombie, en Équateur et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Colombie, en Équateur et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 25/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 25/03/2024) :
 Cymbiapophysa ashily Ghia, Peñaherrera-R., Sherwood &amp; Gabriel, 2024
 Cymbiapophysa carmencita Peñaherrera-R., 2023
 Cymbiapophysa falconi Peñaherrera-R., 2023
@@ -584,7 +600,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Gabriel et Sherwood en 2020 dans les Theraphosidae.
 </t>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gabriel &amp; Sherwood, 2020 : « Revised taxonomic placement of Pseudhapalopus Strand, 1907, with notes on some related taxa (Araneae: Theraphosidae). » Arachnology, vol. 18, no 4, p. 301-316.</t>
         </is>
